--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>424.9499809626933</v>
+        <v>34.04649834449967</v>
       </c>
       <c r="R2">
-        <v>3824.54982866424</v>
+        <v>306.418485100497</v>
       </c>
       <c r="S2">
-        <v>0.01169297362001819</v>
+        <v>0.001571155782371413</v>
       </c>
       <c r="T2">
-        <v>0.01169297362001819</v>
+        <v>0.001571155782371413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>20764.97932043199</v>
+        <v>8456.293075406813</v>
       </c>
       <c r="R3">
-        <v>186884.8138838879</v>
+        <v>76106.63767866133</v>
       </c>
       <c r="S3">
-        <v>0.5713716114634925</v>
+        <v>0.3902355428278332</v>
       </c>
       <c r="T3">
-        <v>0.5713716114634925</v>
+        <v>0.3902355428278332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>3040.696930728973</v>
+        <v>1238.287984926307</v>
       </c>
       <c r="R4">
-        <v>27366.27237656076</v>
+        <v>11144.59186433676</v>
       </c>
       <c r="S4">
-        <v>0.0836681741153097</v>
+        <v>0.05714371293259066</v>
       </c>
       <c r="T4">
-        <v>0.0836681741153097</v>
+        <v>0.05714371293259066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>131.6683337485867</v>
+        <v>25.90403713303022</v>
       </c>
       <c r="R5">
-        <v>1185.01500373728</v>
+        <v>233.136334197272</v>
       </c>
       <c r="S5">
-        <v>0.003623001346243471</v>
+        <v>0.001195402749396087</v>
       </c>
       <c r="T5">
-        <v>0.00362300134624347</v>
+        <v>0.001195402749396087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
         <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
-        <v>6433.910695209956</v>
+        <v>6433.910695209955</v>
       </c>
       <c r="R6">
-        <v>57905.1962568896</v>
+        <v>57905.19625688959</v>
       </c>
       <c r="S6">
-        <v>0.1770362428590097</v>
+        <v>0.2969079489395857</v>
       </c>
       <c r="T6">
-        <v>0.1770362428590097</v>
+        <v>0.2969079489395857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
         <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
-        <v>942.1426432271655</v>
+        <v>942.1426432271652</v>
       </c>
       <c r="R7">
-        <v>8479.28378904449</v>
+        <v>8479.283789044488</v>
       </c>
       <c r="S7">
-        <v>0.02592410769990504</v>
+        <v>0.04347738926767451</v>
       </c>
       <c r="T7">
-        <v>0.02592410769990504</v>
+        <v>0.04347738926767451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>80.74346945143999</v>
+        <v>15.88523049827267</v>
       </c>
       <c r="R8">
-        <v>726.6912250629599</v>
+        <v>142.967074484454</v>
       </c>
       <c r="S8">
-        <v>0.002221746795106501</v>
+        <v>0.0007330613415548476</v>
       </c>
       <c r="T8">
-        <v>0.002221746795106501</v>
+        <v>0.0007330613415548475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
         <v>3945.491348465966</v>
       </c>
       <c r="R9">
-        <v>35509.42213619369</v>
+        <v>35509.4221361937</v>
       </c>
       <c r="S9">
-        <v>0.1085646036531361</v>
+        <v>0.1820739825785977</v>
       </c>
       <c r="T9">
-        <v>0.1085646036531361</v>
+        <v>0.1820739825785976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
         <v>577.753690401874</v>
@@ -1066,10 +1066,10 @@
         <v>5199.783213616866</v>
       </c>
       <c r="S10">
-        <v>0.01589753844777876</v>
+        <v>0.02666180358039599</v>
       </c>
       <c r="T10">
-        <v>0.01589753844777876</v>
+        <v>0.02666180358039599</v>
       </c>
     </row>
   </sheetData>
